--- a/food_analysis.xlsx
+++ b/food_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmac9\Desktop\Coding Stuff\Food_Impact\food_impact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B63C4EA-A4E6-40A2-9119-901FF7110987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B57D60-CB03-474B-909E-B6F9A7823247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8130" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{04DA4E34-F6AA-4555-AF10-7192D7788530}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{04DA4E34-F6AA-4555-AF10-7192D7788530}"/>
   </bookViews>
   <sheets>
     <sheet name="Emissions" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,15 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Emissions!$A$16:$A$17</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Emissions!$D$16:$D$17</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Eutrophication!$D$2:$D$12</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Land Use'!$A$16:$A$17</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Land Use'!$D$16:$D$17</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Eutrophication!$A$16:$A$17</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Eutrophication!$D$16:$D$17</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Eutrophication!$A$2:$A$12</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Eutrophication!$C$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Eutrophication!$C$2:$C$12</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Eutrophication!$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="229">
   <si>
     <t>Count</t>
   </si>
@@ -1671,7 +1676,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Emissions per Kilogram</a:t>
+                  <a:t>Land USe per Kilogram</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1934,6 +1939,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-93AE-4880-994D-F6F36B18EB9B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1979,6 +1989,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-93AE-4880-994D-F6F36B18EB9B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2090,509 +2105,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Emissions of </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Animal Produce</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Eutrophication!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AVG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Eutrophication!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Chicken</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Lamb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Goat</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Pork</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Beef</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cod</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Haddock</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mackerel</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Prawn</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Salmon</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Tuna</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Eutrophication!$D$2:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>26.763328512499999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.2341251671428</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65.873345499999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61.654637110000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>327.684529058333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45.237553859999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.307211299999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63.754033700000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>104.21265316500001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>46.450604290000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>61.550725989999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-307B-4424-9355-396208326A7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1869940096"/>
-        <c:axId val="1869938016"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1869940096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Product Type</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1869938016"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1869938016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Emissions per Kilogram</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1869940096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2822,6 +2334,155 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="95000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="100" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="95000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Average Eutrophication of </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="95000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="100" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="95000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Animal Produce</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="treemap" uniqueId="{F8BC2F43-A289-4E57-AEBB-877766565CBD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:v>SUM</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
         <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
@@ -2886,7 +2547,7 @@
                 <a:uFillTx/>
                 <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               </a:rPr>
-              <a:t>Average Emissions</a:t>
+              <a:t>Average Eutrophication</a:t>
             </a:r>
           </a:p>
         </cx:rich>
@@ -3042,29 +2703,8 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
-  <cs:variation>
-    <a:tint val="88500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="55000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="75000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="98500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="80000"/>
-  </cs:variation>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="23">
+  <a:schemeClr val="accent3"/>
 </cs:colorStyle>
 </file>
 
@@ -7050,29 +6690,71 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C17129C3-14E3-448F-92D9-D633EAA47B8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C17129C3-14E3-448F-92D9-D633EAA47B8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4162425" y="185737"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7456,7 +7138,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7724,7 +7406,7 @@
   <dimension ref="A1:I282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:I22"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8013,7 +7695,7 @@
         <v>4.747958369</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I22" si="0">SUM(F21:G21)</f>
+        <f t="shared" ref="I21" si="0">SUM(F21:G21)</f>
         <v>8.1084950019999997</v>
       </c>
     </row>
@@ -9823,10 +9505,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C107CB0-4DFF-40A6-923D-5D4C7A024E33}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10105,6 +9787,12 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23">
+        <v>252.92385490000001</v>
+      </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
@@ -10118,11 +9806,17 @@
         <v>57.763191110000001</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="K23:K24" si="1">SUM(H23:I23)</f>
+        <f t="shared" ref="K23" si="1">SUM(H23:I23)</f>
         <v>92.901208580000002</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24">
+        <v>355.43232819999997</v>
+      </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
@@ -10141,6 +9835,30 @@
       <c r="K24">
         <f>SUM(H24:J24)</f>
         <v>135.71266158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25">
+        <v>360.72879490000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26">
+        <v>428.69499919999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27">
+        <v>553.37840389999997</v>
       </c>
     </row>
   </sheetData>

--- a/food_analysis.xlsx
+++ b/food_analysis.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmac9\Desktop\Coding Stuff\Food_Impact\food_impact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B57D60-CB03-474B-909E-B6F9A7823247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9BE83A-1472-4942-884A-03199B40B92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{04DA4E34-F6AA-4555-AF10-7192D7788530}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{04DA4E34-F6AA-4555-AF10-7192D7788530}"/>
   </bookViews>
   <sheets>
     <sheet name="Emissions" sheetId="1" r:id="rId1"/>
     <sheet name="Land Use" sheetId="3" r:id="rId2"/>
     <sheet name="Eutrophication" sheetId="4" r:id="rId3"/>
+    <sheet name="Water Withdrawals" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Emissions!$A$16:$A$17</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Emissions!$D$16:$D$17</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Eutrophication!$D$2:$D$12</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Water Withdrawals'!$D$16:$D$17</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Land Use'!$A$16:$A$17</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Land Use'!$D$16:$D$17</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Eutrophication!$A$16:$A$17</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Eutrophication!$D$16:$D$17</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Eutrophication!$A$2:$A$12</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Eutrophication!$C$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Eutrophication!$C$2:$C$12</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Eutrophication!$D$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Eutrophication!$A$2:$A$12</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Eutrophication!$C$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Eutrophication!$C$2:$C$12</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Eutrophication!$A$16:$A$17</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Eutrophication!$D$16:$D$17</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Water Withdrawals'!$A$16:$A$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="234">
   <si>
     <t>Count</t>
   </si>
@@ -738,6 +739,21 @@
   </si>
   <si>
     <t>Ranking</t>
+  </si>
+  <si>
+    <t>MEAT</t>
+  </si>
+  <si>
+    <t>PLANTS</t>
+  </si>
+  <si>
+    <t>SEAFOOD</t>
+  </si>
+  <si>
+    <t>LAND FOOD</t>
+  </si>
+  <si>
+    <t>Top 10</t>
   </si>
 </sst>
 </file>
@@ -2151,6 +2167,862 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Water Withdrawals </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>of </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Animal Produce</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Water Withdrawals'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Water Withdrawals'!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Chicken</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lamb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Goat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pork</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Beef</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cod</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Haddock</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mackerel</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Prawn</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Salmon</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Tuna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Water Withdrawals'!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>474.33016777500001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.53735788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1782.2338279999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1332.210758875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2055.4114608333298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2683.4356009999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1172.0962500000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3961.7235289999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006.5126989500002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1217.8023985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3771.402306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4B5-4B05-B61F-26AE1CE1E903}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1869940096"/>
+        <c:axId val="1869938016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1869940096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Product Type</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1869938016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1869938016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Withdrawals per Kilo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1869940096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>All Products vs Top Five Land Users</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6375-4771-8C82-180F485BE8F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="55000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="55000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="55000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6375-4771-8C82-180F485BE8F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Water Withdrawals'!$A$280:$A$281</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>All Products</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Top 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Water Withdrawals'!$B$280:$B$281</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>122121.32029690499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41093.175029999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6375-4771-8C82-180F485BE8F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -2334,10 +3206,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2443,7 +3315,7 @@
         <cx:series layoutId="treemap" uniqueId="{F8BC2F43-A289-4E57-AEBB-877766565CBD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>SUM</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2483,10 +3355,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2567,7 +3439,123 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Animal Produce vs Plant Produce</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Average water withdrawals</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{F884B673-212C-4E18-8D05-DAA19F29773C}">
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
   <cs:variation>
@@ -2735,6 +3723,60 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
@@ -3226,6 +4268,502 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -5840,6 +7378,1062 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="383">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="383">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6838,6 +9432,165 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBDB7DC1-3044-47A1-8142-941C3D96418E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3CAE89-9E37-4919-A959-11128E575913}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2628900" y="5976937"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C259DF59-C5A3-46B6-8062-146DA4AA543D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9507,7 +12260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C107CB0-4DFF-40A6-923D-5D4C7A024E33}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -9865,4 +12618,2149 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E65EE3-7638-4B69-9FE0-AE0BD5885EA0}">
+  <dimension ref="A1:W282"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>3794.6413422000001</v>
+      </c>
+      <c r="D2">
+        <v>474.33016777500001</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>899.76150515999996</v>
+      </c>
+      <c r="D3">
+        <v>128.53735788</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1782.2338279999999</v>
+      </c>
+      <c r="D4">
+        <v>1782.2338279999999</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5328.8430355</v>
+      </c>
+      <c r="D5">
+        <v>1332.210758875</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5">
+        <v>3177.8124939999998</v>
+      </c>
+      <c r="V5" t="s">
+        <v>229</v>
+      </c>
+      <c r="W5">
+        <f>T5+T6+T9+T11+T12</f>
+        <v>17600.173343999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>12332.468765</v>
+      </c>
+      <c r="D6">
+        <v>2055.4114608333298</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="S6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6">
+        <v>3197.1538730000002</v>
+      </c>
+      <c r="V6" t="s">
+        <v>230</v>
+      </c>
+      <c r="W6">
+        <f>T7+T8+T10+T13+T14</f>
+        <v>23493.001686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>I22</f>
+        <v>8050.3068029999995</v>
+      </c>
+      <c r="D7">
+        <f>C7/B7</f>
+        <v>2683.4356009999997</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="S7" t="s">
+        <v>186</v>
+      </c>
+      <c r="T7">
+        <v>3270.7985589999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1172.0962500000001</v>
+      </c>
+      <c r="D8">
+        <v>1172.0962500000001</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>185</v>
+      </c>
+      <c r="T8">
+        <v>3458.072291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3961.7235289999999</v>
+      </c>
+      <c r="D9">
+        <v>3961.7235289999999</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="S9" t="s">
+        <v>221</v>
+      </c>
+      <c r="T9">
+        <v>3492.081142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f>I20</f>
+        <v>4013.0253979000004</v>
+      </c>
+      <c r="D10">
+        <f>C10/B10</f>
+        <v>2006.5126989500002</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="S10" t="s">
+        <v>183</v>
+      </c>
+      <c r="T10">
+        <v>3504.3436419999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f>I21</f>
+        <v>2435.604797</v>
+      </c>
+      <c r="D11">
+        <f>C11/B11</f>
+        <v>1217.8023985</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11">
+        <v>3771.402306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3771.402306</v>
+      </c>
+      <c r="D12">
+        <v>3771.402306</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="S12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12">
+        <v>3961.7235289999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C2:C12)</f>
+        <v>47542.107558760006</v>
+      </c>
+      <c r="D13">
+        <f>C13/B13</f>
+        <v>1320.6140988544446</v>
+      </c>
+      <c r="S13" t="s">
+        <v>169</v>
+      </c>
+      <c r="T13">
+        <v>6413.3145969999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>165</v>
+      </c>
+      <c r="T14">
+        <v>6846.472597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>47542.107558759999</v>
+      </c>
+      <c r="D16">
+        <v>1320.61409885444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>175</v>
+      </c>
+      <c r="C17">
+        <v>115672.387768145</v>
+      </c>
+      <c r="D17">
+        <v>660.98507296082801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>815.87152490000005</v>
+      </c>
+      <c r="G20">
+        <v>3197.1538730000002</v>
+      </c>
+      <c r="I20">
+        <f>SUM(F20:G20)</f>
+        <v>4013.0253979000004</v>
+      </c>
+      <c r="L20" t="s">
+        <v>231</v>
+      </c>
+      <c r="M20">
+        <f>SUM(C7:C12)</f>
+        <v>23404.159082900002</v>
+      </c>
+      <c r="N20">
+        <f>AVERAGE(D7:D12)</f>
+        <v>2468.8287972416665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1074.9294259999999</v>
+      </c>
+      <c r="G21">
+        <v>1360.675371</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21" si="0">SUM(F21:G21)</f>
+        <v>2435.604797</v>
+      </c>
+      <c r="L21" t="s">
+        <v>232</v>
+      </c>
+      <c r="M21">
+        <f>SUM(C2:C6)</f>
+        <v>24137.948475860001</v>
+      </c>
+      <c r="N21">
+        <f>AVERAGE(D2:D6)</f>
+        <v>1154.544714672666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>2213.398279</v>
+      </c>
+      <c r="G22">
+        <v>2659.0960300000002</v>
+      </c>
+      <c r="H22">
+        <v>3177.8124939999998</v>
+      </c>
+      <c r="I22">
+        <f>SUM(F22:H22)</f>
+        <v>8050.3068029999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68">
+        <v>8.3714935000000004E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69">
+        <v>11.212597089999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>12.65397785</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71">
+        <v>14.263957339999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72">
+        <v>14.31452548</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73">
+        <v>14.491945380000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74">
+        <v>14.92984817</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75">
+        <v>15.15733657</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>205</v>
+      </c>
+      <c r="B76">
+        <v>16.213425539999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77">
+        <v>23.193771389999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78">
+        <v>31.18334196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79">
+        <v>34.657566469999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>200</v>
+      </c>
+      <c r="B80">
+        <v>43.081001200000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81">
+        <v>45.348681120000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82">
+        <v>45.713304000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83">
+        <v>46.548261599999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84">
+        <v>49.402841639999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>49.589951749999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86">
+        <v>50.476136629999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87">
+        <v>52.050779349999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88">
+        <v>53.860593180000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>211</v>
+      </c>
+      <c r="B89">
+        <v>62.435396879999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90">
+        <v>71.918497799999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91">
+        <v>74.280528770000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92">
+        <v>80.808580059999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93">
+        <v>81.75136895</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94">
+        <v>86.27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>219</v>
+      </c>
+      <c r="B95">
+        <v>86.27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96">
+        <v>87.998219250000005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>218</v>
+      </c>
+      <c r="B97">
+        <v>88.010586579999995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98">
+        <v>88.671835610000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99">
+        <v>90.334226799999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>141</v>
+      </c>
+      <c r="B100">
+        <v>93.535379379999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101">
+        <v>94.123941479999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102">
+        <v>100.7202905</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>217</v>
+      </c>
+      <c r="B103">
+        <v>106.4520234</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104">
+        <v>107.6329106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105">
+        <v>110.320781</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106">
+        <v>115.5364951</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107">
+        <v>121.70077139999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108">
+        <v>122.31834019999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109">
+        <v>122.41636800000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110">
+        <v>123.26191179999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B111">
+        <v>131.31182530000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112">
+        <v>133.34570629999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>72</v>
+      </c>
+      <c r="B113">
+        <v>134.39550149999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114">
+        <v>136.93994000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115">
+        <v>142.69264150000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>194</v>
+      </c>
+      <c r="B116">
+        <v>151.8160565</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117">
+        <v>152.4829968</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>81</v>
+      </c>
+      <c r="B118">
+        <v>157.235026</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>192</v>
+      </c>
+      <c r="B119">
+        <v>161.38535830000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>60</v>
+      </c>
+      <c r="B120">
+        <v>172.43288659999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121">
+        <v>173.4083565</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>51</v>
+      </c>
+      <c r="B122">
+        <v>196.36602360000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>189</v>
+      </c>
+      <c r="B123">
+        <v>199.54930150000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>113</v>
+      </c>
+      <c r="B124">
+        <v>210.3547542</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>118</v>
+      </c>
+      <c r="B125">
+        <v>210.90354529999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126">
+        <v>211.8102619</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>116</v>
+      </c>
+      <c r="B127">
+        <v>212.60543379999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>26</v>
+      </c>
+      <c r="B128">
+        <v>217.2263567</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>46</v>
+      </c>
+      <c r="B129">
+        <v>224.90420090000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>88</v>
+      </c>
+      <c r="B130">
+        <v>231.83602780000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>145</v>
+      </c>
+      <c r="B131">
+        <v>232.56529699999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>87</v>
+      </c>
+      <c r="B132">
+        <v>241.91359510000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>42</v>
+      </c>
+      <c r="B133">
+        <v>242.71383979999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>92</v>
+      </c>
+      <c r="B134">
+        <v>248.65015550000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>75</v>
+      </c>
+      <c r="B135">
+        <v>251.34492599999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>108</v>
+      </c>
+      <c r="B136">
+        <v>252.75561709999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>45</v>
+      </c>
+      <c r="B137">
+        <v>269.96051269999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>125</v>
+      </c>
+      <c r="B138">
+        <v>271.55788840000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>106</v>
+      </c>
+      <c r="B139">
+        <v>273.11958980000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>91</v>
+      </c>
+      <c r="B140">
+        <v>282.8976035</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>177</v>
+      </c>
+      <c r="B141">
+        <v>286.81889719999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>78</v>
+      </c>
+      <c r="B142">
+        <v>289.26426040000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>89</v>
+      </c>
+      <c r="B143">
+        <v>291.3505735</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>41</v>
+      </c>
+      <c r="B144">
+        <v>291.66502370000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>293.57863509999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>80</v>
+      </c>
+      <c r="B146">
+        <v>293.89138079999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147">
+        <v>294.98702209999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>22</v>
+      </c>
+      <c r="B148">
+        <v>301.48683160000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>99</v>
+      </c>
+      <c r="B149">
+        <v>305.76633579999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>143</v>
+      </c>
+      <c r="B150">
+        <v>307.21278969999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>136</v>
+      </c>
+      <c r="B151">
+        <v>309.77459590000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>124</v>
+      </c>
+      <c r="B152">
+        <v>309.99905189999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>63</v>
+      </c>
+      <c r="B153">
+        <v>310.51426300000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>112</v>
+      </c>
+      <c r="B154">
+        <v>311.74994720000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>111</v>
+      </c>
+      <c r="B155">
+        <v>316.84505360000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>43</v>
+      </c>
+      <c r="B156">
+        <v>318.56528150000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>53</v>
+      </c>
+      <c r="B157">
+        <v>318.7814113</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>152</v>
+      </c>
+      <c r="B158">
+        <v>322.90141690000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>59</v>
+      </c>
+      <c r="B159">
+        <v>322.96235089999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>122</v>
+      </c>
+      <c r="B160">
+        <v>333.5653423</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>104</v>
+      </c>
+      <c r="B161">
+        <v>333.85393099999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>94</v>
+      </c>
+      <c r="B162">
+        <v>340.5593576</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>55</v>
+      </c>
+      <c r="B163">
+        <v>343.08686829999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>133</v>
+      </c>
+      <c r="B164">
+        <v>343.18216380000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>85</v>
+      </c>
+      <c r="B165">
+        <v>345.3077303</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>33</v>
+      </c>
+      <c r="B166">
+        <v>345.98976049999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>158</v>
+      </c>
+      <c r="B167">
+        <v>346.79194460000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>119</v>
+      </c>
+      <c r="B168">
+        <v>349.20112749999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>56</v>
+      </c>
+      <c r="B169">
+        <v>362.92674929999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>137</v>
+      </c>
+      <c r="B170">
+        <v>363.20041800000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>126</v>
+      </c>
+      <c r="B171">
+        <v>366.33673379999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>57</v>
+      </c>
+      <c r="B172">
+        <v>367.41429929999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>90</v>
+      </c>
+      <c r="B173">
+        <v>374.7971273</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>154</v>
+      </c>
+      <c r="B174">
+        <v>379.12619410000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>139</v>
+      </c>
+      <c r="B175">
+        <v>382.99411379999998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>71</v>
+      </c>
+      <c r="B176">
+        <v>396.38744919999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>121</v>
+      </c>
+      <c r="B177">
+        <v>407.8971621</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>110</v>
+      </c>
+      <c r="B178">
+        <v>412.92972079999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>115</v>
+      </c>
+      <c r="B179">
+        <v>413.22803340000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>164</v>
+      </c>
+      <c r="B180">
+        <v>420.95062990000002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>134</v>
+      </c>
+      <c r="B181">
+        <v>436.1916329</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>114</v>
+      </c>
+      <c r="B182">
+        <v>444.22568009999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>151</v>
+      </c>
+      <c r="B183">
+        <v>455.86186709999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>97</v>
+      </c>
+      <c r="B184">
+        <v>460.784719</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>147</v>
+      </c>
+      <c r="B185">
+        <v>463.34154949999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>135</v>
+      </c>
+      <c r="B186">
+        <v>473.4238545</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>24</v>
+      </c>
+      <c r="B187">
+        <v>474.15133270000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>167</v>
+      </c>
+      <c r="B188">
+        <v>481.17573160000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>171</v>
+      </c>
+      <c r="B189">
+        <v>483.11358610000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>155</v>
+      </c>
+      <c r="B190">
+        <v>483.74444990000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>93</v>
+      </c>
+      <c r="B191">
+        <v>487.88553200000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>68</v>
+      </c>
+      <c r="B192">
+        <v>494.95070340000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>146</v>
+      </c>
+      <c r="B193">
+        <v>499.2759125</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>132</v>
+      </c>
+      <c r="B194">
+        <v>500.98994809999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>102</v>
+      </c>
+      <c r="B195">
+        <v>502.10273189999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>109</v>
+      </c>
+      <c r="B196">
+        <v>514.05029869999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>100</v>
+      </c>
+      <c r="B197">
+        <v>516.99225590000003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>179</v>
+      </c>
+      <c r="B198">
+        <v>523.0234054</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>188</v>
+      </c>
+      <c r="B199">
+        <v>524.25835629999995</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>86</v>
+      </c>
+      <c r="B200">
+        <v>551.01608409999994</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>197</v>
+      </c>
+      <c r="B201">
+        <v>551.84745320000002</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>174</v>
+      </c>
+      <c r="B202">
+        <v>563.91706550000004</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>178</v>
+      </c>
+      <c r="B203">
+        <v>577.23182759999997</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>156</v>
+      </c>
+      <c r="B204">
+        <v>579.2531133</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>128</v>
+      </c>
+      <c r="B205">
+        <v>614.16433329999995</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>44</v>
+      </c>
+      <c r="B206">
+        <v>619.19028679999997</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>176</v>
+      </c>
+      <c r="B207">
+        <v>631.83395069999995</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>74</v>
+      </c>
+      <c r="B208">
+        <v>653.09287280000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>52</v>
+      </c>
+      <c r="B209">
+        <v>726.69455760000005</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>190</v>
+      </c>
+      <c r="B210">
+        <v>727.74063839999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>47</v>
+      </c>
+      <c r="B211">
+        <v>743.3134685</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>161</v>
+      </c>
+      <c r="B212">
+        <v>765.90776760000006</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>166</v>
+      </c>
+      <c r="B213">
+        <v>779.44421360000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>48</v>
+      </c>
+      <c r="B214">
+        <v>783.34545270000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>168</v>
+      </c>
+      <c r="B215">
+        <v>783.42980750000004</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>76</v>
+      </c>
+      <c r="B216">
+        <v>786.81067529999996</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>142</v>
+      </c>
+      <c r="B217">
+        <v>787.91834870000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>49</v>
+      </c>
+      <c r="B218">
+        <v>793.0396442</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>149</v>
+      </c>
+      <c r="B219">
+        <v>815.87152490000005</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>160</v>
+      </c>
+      <c r="B220">
+        <v>830.03075190000004</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>123</v>
+      </c>
+      <c r="B221">
+        <v>834.87951320000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>150</v>
+      </c>
+      <c r="B222">
+        <v>843.37293969999996</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>191</v>
+      </c>
+      <c r="B223">
+        <v>844.76133379999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>61</v>
+      </c>
+      <c r="B224">
+        <v>851.04876460000003</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>172</v>
+      </c>
+      <c r="B225">
+        <v>883.36553379999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>79</v>
+      </c>
+      <c r="B226">
+        <v>885.10113609999996</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>163</v>
+      </c>
+      <c r="B227">
+        <v>899.72282759999996</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>70</v>
+      </c>
+      <c r="B228">
+        <v>917.86751700000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>105</v>
+      </c>
+      <c r="B229">
+        <v>949.70159820000003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>117</v>
+      </c>
+      <c r="B230">
+        <v>1074.9294259999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>214</v>
+      </c>
+      <c r="B231">
+        <v>1100.1531729999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>129</v>
+      </c>
+      <c r="B232">
+        <v>1172.0962500000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>84</v>
+      </c>
+      <c r="B233">
+        <v>1202.3900470000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>175</v>
+      </c>
+      <c r="B234">
+        <v>1215.2912859999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>62</v>
+      </c>
+      <c r="B235">
+        <v>1246.9737829999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>19</v>
+      </c>
+      <c r="B236">
+        <v>1255.103151</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>187</v>
+      </c>
+      <c r="B237">
+        <v>1292.217224</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238">
+        <v>1360.675371</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>199</v>
+      </c>
+      <c r="B239">
+        <v>1366.755042</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>208</v>
+      </c>
+      <c r="B240">
+        <v>1411.2424430000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>140</v>
+      </c>
+      <c r="B241">
+        <v>1416.9498450000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>182</v>
+      </c>
+      <c r="B242">
+        <v>1423.9165439999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>101</v>
+      </c>
+      <c r="B243">
+        <v>1459.0838799999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>203</v>
+      </c>
+      <c r="B244">
+        <v>1507.3516589999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>202</v>
+      </c>
+      <c r="B245">
+        <v>1529.719842</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>204</v>
+      </c>
+      <c r="B246">
+        <v>1534.217402</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>201</v>
+      </c>
+      <c r="B247">
+        <v>1549.2425109999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>195</v>
+      </c>
+      <c r="B248">
+        <v>1611.1902950000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>198</v>
+      </c>
+      <c r="B249">
+        <v>1642.005709</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>21</v>
+      </c>
+      <c r="B250">
+        <v>1649.71129</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>207</v>
+      </c>
+      <c r="B251">
+        <v>1668.2072230000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>209</v>
+      </c>
+      <c r="B252">
+        <v>1765.548573</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>210</v>
+      </c>
+      <c r="B253">
+        <v>1782.2338279999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>216</v>
+      </c>
+      <c r="B254">
+        <v>1800.8988629999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>96</v>
+      </c>
+      <c r="B255">
+        <v>1869.5568470000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>212</v>
+      </c>
+      <c r="B256">
+        <v>1895.349021</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>213</v>
+      </c>
+      <c r="B257">
+        <v>1939.9132569999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>224</v>
+      </c>
+      <c r="B258">
+        <v>1954.3529840000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>103</v>
+      </c>
+      <c r="B259">
+        <v>2114.4378649999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>170</v>
+      </c>
+      <c r="B260">
+        <v>2169.6548550000002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>131</v>
+      </c>
+      <c r="B261">
+        <v>2213.398279</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>222</v>
+      </c>
+      <c r="B262">
+        <v>2227.9892439999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>18</v>
+      </c>
+      <c r="B263">
+        <v>2253.211409</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>20</v>
+      </c>
+      <c r="B264">
+        <v>2418.437821</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>223</v>
+      </c>
+      <c r="B265">
+        <v>2493.9461139999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>173</v>
+      </c>
+      <c r="B266">
+        <v>2618.9188450000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>148</v>
+      </c>
+      <c r="B267">
+        <v>2659.0960300000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>184</v>
+      </c>
+      <c r="B268">
+        <v>3046.9752990000002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269">
+        <v>3177.8124939999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>50</v>
+      </c>
+      <c r="B270">
+        <v>3197.1538730000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>186</v>
+      </c>
+      <c r="B271">
+        <v>3270.7985589999998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>185</v>
+      </c>
+      <c r="B272">
+        <v>3458.072291</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>221</v>
+      </c>
+      <c r="B273">
+        <v>3492.081142</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>183</v>
+      </c>
+      <c r="B274">
+        <v>3504.3436419999998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>14</v>
+      </c>
+      <c r="B275">
+        <v>3771.402306</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>11</v>
+      </c>
+      <c r="B276">
+        <v>3961.7235289999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>169</v>
+      </c>
+      <c r="B277">
+        <v>6413.3145969999996</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>165</v>
+      </c>
+      <c r="B278">
+        <v>6846.472597</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>227</v>
+      </c>
+      <c r="B280">
+        <f>B282-B281</f>
+        <v>122121.32029690499</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>233</v>
+      </c>
+      <c r="B281">
+        <f>SUM(B269:B278)</f>
+        <v>41093.175029999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>225</v>
+      </c>
+      <c r="B282">
+        <f>SUM(B68:B278)</f>
+        <v>163214.49532690499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/food_analysis.xlsx
+++ b/food_analysis.xlsx
@@ -8,20 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmac9\Desktop\Coding Stuff\Food_Impact\food_impact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9BE83A-1472-4942-884A-03199B40B92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C27334-9797-4F0D-A08E-6E2E4E965420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{04DA4E34-F6AA-4555-AF10-7192D7788530}"/>
+    <workbookView xWindow="28695" yWindow="-7695" windowWidth="16410" windowHeight="11295" activeTab="4" xr2:uid="{04DA4E34-F6AA-4555-AF10-7192D7788530}"/>
   </bookViews>
   <sheets>
     <sheet name="Emissions" sheetId="1" r:id="rId1"/>
     <sheet name="Land Use" sheetId="3" r:id="rId2"/>
     <sheet name="Eutrophication" sheetId="4" r:id="rId3"/>
     <sheet name="Water Withdrawals" sheetId="5" r:id="rId4"/>
+    <sheet name="Water Scarcity" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Emissions!$A$16:$A$17</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Emissions!$D$16:$D$17</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'Water Withdrawals'!$D$16:$D$17</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Water Scarcity'!$A$16:$A$17</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Water Scarcity'!$D$16:$D$17</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Water Scarcity'!$A$16:$A$17</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Water Scarcity'!$D$16:$D$17</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Land Use'!$A$16:$A$17</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Land Use'!$D$16:$D$17</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Eutrophication!$A$2:$A$12</definedName>
@@ -52,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="234">
   <si>
     <t>Count</t>
   </si>
@@ -760,7 +765,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,7 +798,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -785,14 +806,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2719,8 +2754,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>All Products vs Top Five Land Users</a:t>
+              <a:t>All Products vs Top</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Ten Water Withdrawers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2953,6 +2993,867 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-6375-4771-8C82-180F485BE8F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Water Scarcity </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>of </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Animal Produce</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Water Scarcity'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Water Scarcity'!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Chicken</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lamb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Goat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pork</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Beef</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cod</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Haddock</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mackerel</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Prawn</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Salmon</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Tuna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Water Scarcity'!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12293.138709999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2826.7748780000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37119.24237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47079.370447499998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47490.187133333297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27920.946979999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17220.136399999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39541.631159999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69061.422909999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12854.66635</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38556.182439999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98DD-48CB-A608-E397200886C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1869940096"/>
+        <c:axId val="1869938016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1869940096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Product Type</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1869938016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1869938016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Water scarcity </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1869940096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>All Products vs Top Ten Water Scarcity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Procducts</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AE58-47AC-B572-AAF3752C1634}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="55000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="55000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="55000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AE58-47AC-B572-AAF3752C1634}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Water Scarcity'!$A$280:$A$281</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>All Products</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Top 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Water Scarcity'!$B$280:$B$281</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3271944.7507846099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1795651.2785800002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AE58-47AC-B572-AAF3752C1634}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3528,6 +4429,95 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Animal Produce vs Plant Produce</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Average water Scarcity</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{F884B673-212C-4E18-8D05-DAA19F29773C}">
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
@@ -3556,6 +4546,87 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
   <cs:variation>
@@ -4274,6 +5345,1558 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="383">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9591,6 +12214,165 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A11F00C5-49D3-4724-9C2F-830390BC728A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09FB4928-3EE1-4583-9974-C6277ADC410F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2628900" y="5976937"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67230F95-576A-4585-8387-18C6952DCAD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12624,8 +15406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E65EE3-7638-4B69-9FE0-AE0BD5885EA0}">
   <dimension ref="A1:W282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12951,7 +15733,7 @@
         <v>1320.61409885444</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -12965,7 +15747,7 @@
         <v>660.98507296082801</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>50</v>
       </c>
@@ -12994,7 +15776,7 @@
         <v>2468.8287972416665</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>13</v>
       </c>
@@ -13023,7 +15805,7 @@
         <v>1154.544714672666</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>9</v>
       </c>
@@ -13044,6 +15826,9 @@
         <v>8050.3068029999995</v>
       </c>
     </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R27" s="1"/>
+    </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>196</v>
@@ -14761,6 +17546,2085 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C926448-A912-4D61-AEFB-D83344D7E928}">
+  <dimension ref="A1:R282"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="B274" sqref="B274"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>98345.109679999994</v>
+      </c>
+      <c r="D2" s="3">
+        <v>12293.138709999999</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>19787.424146000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2826.7748780000002</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>37119.24237</v>
+      </c>
+      <c r="D4" s="3">
+        <v>37119.24237</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>188317.48178999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>47079.370447499998</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>284941.12280000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>47490.187133333297</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>I22</f>
+        <v>83762.840939999995</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7/B7</f>
+        <v>27920.946979999997</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>17220.136399999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>17220.136399999999</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>39541.631159999997</v>
+      </c>
+      <c r="D9" s="3">
+        <v>39541.631159999997</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f>I20</f>
+        <v>138122.84581999999</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10/B10</f>
+        <v>69061.422909999994</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f>I21</f>
+        <v>25709.332699999999</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11/B11</f>
+        <v>12854.66635</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>38556.182439999997</v>
+      </c>
+      <c r="D12" s="3">
+        <v>38556.182439999997</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C2:C12)</f>
+        <v>971423.3502460001</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13/B13</f>
+        <v>26983.981951277779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>973135.82092600001</v>
+      </c>
+      <c r="D16">
+        <v>27031.550581277701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>175</v>
+      </c>
+      <c r="C17">
+        <v>4094460.2084386102</v>
+      </c>
+      <c r="D17">
+        <v>23396.915476792001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>25995.933420000001</v>
+      </c>
+      <c r="G20">
+        <v>112126.9124</v>
+      </c>
+      <c r="I20">
+        <f>SUM(F20:G20)</f>
+        <v>138122.84581999999</v>
+      </c>
+      <c r="L20" t="s">
+        <v>231</v>
+      </c>
+      <c r="M20">
+        <f>SUM(C7:C12)</f>
+        <v>342912.96946000005</v>
+      </c>
+      <c r="N20">
+        <f>AVERAGE(D7:D12)</f>
+        <v>34192.497706666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>12596.0774</v>
+      </c>
+      <c r="G21">
+        <v>13113.255300000001</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21" si="0">SUM(F21:G21)</f>
+        <v>25709.332699999999</v>
+      </c>
+      <c r="L21" t="s">
+        <v>232</v>
+      </c>
+      <c r="M21">
+        <f>SUM(C2:C6)</f>
+        <v>628510.38078600005</v>
+      </c>
+      <c r="N21">
+        <f>AVERAGE(D2:D6)</f>
+        <v>29361.742707766662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>25225.575680000002</v>
+      </c>
+      <c r="G22">
+        <v>25995.933420000001</v>
+      </c>
+      <c r="H22">
+        <v>32541.331839999999</v>
+      </c>
+      <c r="I22">
+        <f>SUM(F22:H22)</f>
+        <v>83762.840939999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R27" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68">
+        <v>0.69387410999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69">
+        <v>229.09858629999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70">
+        <v>292.20701919999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71">
+        <v>315.76151570000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72">
+        <v>331.91074429999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73">
+        <v>582.53120579999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74">
+        <v>685.68442500000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>215</v>
+      </c>
+      <c r="B75">
+        <v>746.96185690000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76">
+        <v>771.32277399999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77">
+        <v>811.50561770000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78">
+        <v>812.84725189999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79">
+        <v>874.72616770000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>219</v>
+      </c>
+      <c r="B80">
+        <v>995.28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81">
+        <v>995.28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82">
+        <v>1019.947264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83">
+        <v>1032.4459429999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84">
+        <v>1110.5161800000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85">
+        <v>1279.489583</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86">
+        <v>1349.041835</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87">
+        <v>1512.009057</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88">
+        <v>1796.4606839999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89">
+        <v>1891.1485299999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90">
+        <v>1925.669324</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>217</v>
+      </c>
+      <c r="B91">
+        <v>2310.035003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92">
+        <v>2469.0892990000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93">
+        <v>2563.3420540000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>2611.2894860000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95">
+        <v>2636.4974910000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96">
+        <v>2643.6401329999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>64</v>
+      </c>
+      <c r="B97">
+        <v>2664.9379100000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98">
+        <v>2670.4920499999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>181</v>
+      </c>
+      <c r="B99">
+        <v>2672.6386910000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100">
+        <v>2873.8087580000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101">
+        <v>3004.152486</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102">
+        <v>3090.6986240000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>65</v>
+      </c>
+      <c r="B103">
+        <v>3122.2244569999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104">
+        <v>3196.479186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>29</v>
+      </c>
+      <c r="B105">
+        <v>3286.8296169999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106">
+        <v>3309.1798739999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>82</v>
+      </c>
+      <c r="B107">
+        <v>3483.4429730000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108">
+        <v>3755.448398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>157</v>
+      </c>
+      <c r="B109">
+        <v>4303.7019289999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110">
+        <v>4601.9581699999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111">
+        <v>4714.7085859999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112">
+        <v>4853.8970259999996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>41</v>
+      </c>
+      <c r="B113">
+        <v>4959.105278</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>60</v>
+      </c>
+      <c r="B114">
+        <v>5162.9639159999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>34</v>
+      </c>
+      <c r="B115">
+        <v>5347.1112270000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116">
+        <v>5549.5901480000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117">
+        <v>6142.5152520000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>108</v>
+      </c>
+      <c r="B118">
+        <v>6221.4970160000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119">
+        <v>6564.5784809999996</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>112</v>
+      </c>
+      <c r="B120">
+        <v>6595.9170729999996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121">
+        <v>6763.5760600000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>152</v>
+      </c>
+      <c r="B122">
+        <v>6877.3181029999996</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>32</v>
+      </c>
+      <c r="B123">
+        <v>6888.8514869999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124">
+        <v>7340.2371860000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>155</v>
+      </c>
+      <c r="B125">
+        <v>7357.2006060000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>113</v>
+      </c>
+      <c r="B126">
+        <v>7388.2798320000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>116</v>
+      </c>
+      <c r="B127">
+        <v>7409.4175269999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128">
+        <v>7431.1315219999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>43</v>
+      </c>
+      <c r="B129">
+        <v>7488.0098619999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>143</v>
+      </c>
+      <c r="B130">
+        <v>7522.7569679999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>118</v>
+      </c>
+      <c r="B131">
+        <v>7534.34843</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132">
+        <v>7616.8978459999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>30</v>
+      </c>
+      <c r="B133">
+        <v>7715.9047739999996</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>87</v>
+      </c>
+      <c r="B134">
+        <v>7726.0167179999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>110</v>
+      </c>
+      <c r="B135">
+        <v>7872.7081630000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>89</v>
+      </c>
+      <c r="B136">
+        <v>7919.100246</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>147</v>
+      </c>
+      <c r="B137">
+        <v>7961.4400150000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>81</v>
+      </c>
+      <c r="B138">
+        <v>7993.1309570000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>121</v>
+      </c>
+      <c r="B139">
+        <v>8127.0935520000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>167</v>
+      </c>
+      <c r="B140">
+        <v>8143.7423209999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>197</v>
+      </c>
+      <c r="B141">
+        <v>8151.7609389999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>188</v>
+      </c>
+      <c r="B142">
+        <v>8165.8516440000003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>71</v>
+      </c>
+      <c r="B143">
+        <v>8193.8218020000004</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>77</v>
+      </c>
+      <c r="B144">
+        <v>8263.9081289999995</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>114</v>
+      </c>
+      <c r="B145">
+        <v>8368.7741170000008</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>135</v>
+      </c>
+      <c r="B146">
+        <v>8508.6278590000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>177</v>
+      </c>
+      <c r="B147">
+        <v>8521.2045139999991</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148">
+        <v>8600.3155220000008</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>111</v>
+      </c>
+      <c r="B149">
+        <v>8631.5173649999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>91</v>
+      </c>
+      <c r="B150">
+        <v>8656.5538539999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>92</v>
+      </c>
+      <c r="B151">
+        <v>8694.9204640000007</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>88</v>
+      </c>
+      <c r="B152">
+        <v>8711.0031739999995</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>94</v>
+      </c>
+      <c r="B153">
+        <v>8778.7497839999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>28</v>
+      </c>
+      <c r="B154">
+        <v>8802.7061979999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>179</v>
+      </c>
+      <c r="B155">
+        <v>8974.3020379999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>93</v>
+      </c>
+      <c r="B156">
+        <v>9002.7609130000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>68</v>
+      </c>
+      <c r="B157">
+        <v>9008.075734</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>97</v>
+      </c>
+      <c r="B158">
+        <v>9076.5891219999994</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159">
+        <v>9155.0215090000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>85</v>
+      </c>
+      <c r="B160">
+        <v>9360.7817969999996</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>24</v>
+      </c>
+      <c r="B161">
+        <v>9387.3635470000008</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>106</v>
+      </c>
+      <c r="B162">
+        <v>9421.2959759999994</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>130</v>
+      </c>
+      <c r="B163">
+        <v>9440.0004869999993</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>109</v>
+      </c>
+      <c r="B164">
+        <v>9510.6288669999994</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>126</v>
+      </c>
+      <c r="B165">
+        <v>9674.8602140000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>192</v>
+      </c>
+      <c r="B166">
+        <v>9747.7671489999993</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>100</v>
+      </c>
+      <c r="B167">
+        <v>9749.6528409999992</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>154</v>
+      </c>
+      <c r="B168">
+        <v>9788.1425899999995</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>127</v>
+      </c>
+      <c r="B169">
+        <v>10216.00447</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>124</v>
+      </c>
+      <c r="B170">
+        <v>10478.90228</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>80</v>
+      </c>
+      <c r="B171">
+        <v>10612.184939999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>99</v>
+      </c>
+      <c r="B172">
+        <v>10911.911529999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>76</v>
+      </c>
+      <c r="B173">
+        <v>11008.57717</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>139</v>
+      </c>
+      <c r="B174">
+        <v>11075.302180000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>84</v>
+      </c>
+      <c r="B175">
+        <v>11123.74633</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>134</v>
+      </c>
+      <c r="B176">
+        <v>11147.176670000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>45</v>
+      </c>
+      <c r="B177">
+        <v>11379.19348</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>164</v>
+      </c>
+      <c r="B178">
+        <v>11529.82912</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>115</v>
+      </c>
+      <c r="B179">
+        <v>11734.065710000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>44</v>
+      </c>
+      <c r="B180">
+        <v>11885.662840000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>171</v>
+      </c>
+      <c r="B181">
+        <v>11978.28066</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>119</v>
+      </c>
+      <c r="B182">
+        <v>12006.4285</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>151</v>
+      </c>
+      <c r="B183">
+        <v>12242.389090000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>102</v>
+      </c>
+      <c r="B184">
+        <v>12400.221949999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>117</v>
+      </c>
+      <c r="B185">
+        <v>12596.0774</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>42</v>
+      </c>
+      <c r="B186">
+        <v>12617.803879999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>122</v>
+      </c>
+      <c r="B187">
+        <v>12889.32993</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>137</v>
+      </c>
+      <c r="B188">
+        <v>12893.176949999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>70</v>
+      </c>
+      <c r="B189">
+        <v>13067.233770000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190">
+        <v>13113.255300000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>90</v>
+      </c>
+      <c r="B191">
+        <v>13161.3997</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>52</v>
+      </c>
+      <c r="B192">
+        <v>13204.74503</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>47</v>
+      </c>
+      <c r="B193">
+        <v>13528.74741</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>174</v>
+      </c>
+      <c r="B194">
+        <v>13741.159229999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>133</v>
+      </c>
+      <c r="B195">
+        <v>13749.66728</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>104</v>
+      </c>
+      <c r="B196">
+        <v>13862.81121</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>132</v>
+      </c>
+      <c r="B197">
+        <v>13985.70508</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>178</v>
+      </c>
+      <c r="B198">
+        <v>14026.46297</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>48</v>
+      </c>
+      <c r="B199">
+        <v>14139.93986</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>156</v>
+      </c>
+      <c r="B200">
+        <v>14237.87038</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>49</v>
+      </c>
+      <c r="B201">
+        <v>14274.446309999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>26</v>
+      </c>
+      <c r="B202">
+        <v>14423.40928</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>161</v>
+      </c>
+      <c r="B203">
+        <v>14563.95283</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>86</v>
+      </c>
+      <c r="B204">
+        <v>14778.85392</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>46</v>
+      </c>
+      <c r="B205">
+        <v>15385.286319999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>176</v>
+      </c>
+      <c r="B206">
+        <v>15450.91957</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>105</v>
+      </c>
+      <c r="B207">
+        <v>15682.252039999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>128</v>
+      </c>
+      <c r="B208">
+        <v>16664.938559999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>129</v>
+      </c>
+      <c r="B209">
+        <v>17220.136399999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>190</v>
+      </c>
+      <c r="B210">
+        <v>17743.360349999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>75</v>
+      </c>
+      <c r="B211">
+        <v>18010.280200000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>146</v>
+      </c>
+      <c r="B212">
+        <v>18338.645400000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>142</v>
+      </c>
+      <c r="B213">
+        <v>18728.168229999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>74</v>
+      </c>
+      <c r="B214">
+        <v>20251.384310000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>191</v>
+      </c>
+      <c r="B215">
+        <v>20838.936580000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>123</v>
+      </c>
+      <c r="B216">
+        <v>21190.656470000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>214</v>
+      </c>
+      <c r="B217">
+        <v>22821.122100000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>159</v>
+      </c>
+      <c r="B218">
+        <v>23105.835609999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>61</v>
+      </c>
+      <c r="B219">
+        <v>24526.647690000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>158</v>
+      </c>
+      <c r="B220">
+        <v>24784.791120000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>131</v>
+      </c>
+      <c r="B221">
+        <v>25225.575680000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>63</v>
+      </c>
+      <c r="B222">
+        <v>25692.928599999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>149</v>
+      </c>
+      <c r="B223">
+        <v>25995.933420000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>166</v>
+      </c>
+      <c r="B224">
+        <v>27457.923510000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>19</v>
+      </c>
+      <c r="B225">
+        <v>27501.47005</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>150</v>
+      </c>
+      <c r="B226">
+        <v>27611.289420000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>53</v>
+      </c>
+      <c r="B227">
+        <v>27682.78066</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>148</v>
+      </c>
+      <c r="B228">
+        <v>27708.4041</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>59</v>
+      </c>
+      <c r="B229">
+        <v>27733.45808</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>168</v>
+      </c>
+      <c r="B230">
+        <v>28143.643629999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>199</v>
+      </c>
+      <c r="B231">
+        <v>28194.19297</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>55</v>
+      </c>
+      <c r="B232">
+        <v>28975.097829999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>172</v>
+      </c>
+      <c r="B233">
+        <v>29485.731400000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>160</v>
+      </c>
+      <c r="B234">
+        <v>29742.158759999998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>163</v>
+      </c>
+      <c r="B235">
+        <v>30695.354599999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>203</v>
+      </c>
+      <c r="B236">
+        <v>31345.407329999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>204</v>
+      </c>
+      <c r="B237">
+        <v>31598.034329999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>202</v>
+      </c>
+      <c r="B238">
+        <v>31867.990880000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>56</v>
+      </c>
+      <c r="B239">
+        <v>32159.961360000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240">
+        <v>32541.331839999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>57</v>
+      </c>
+      <c r="B241">
+        <v>32696.893520000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>201</v>
+      </c>
+      <c r="B242">
+        <v>33023.843050000003</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>207</v>
+      </c>
+      <c r="B243">
+        <v>36337.255530000002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>209</v>
+      </c>
+      <c r="B244">
+        <v>36540.898679999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>210</v>
+      </c>
+      <c r="B245">
+        <v>37119.24237</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>14</v>
+      </c>
+      <c r="B246">
+        <v>38556.182439999997</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>96</v>
+      </c>
+      <c r="B247">
+        <v>38578.819259999997</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>212</v>
+      </c>
+      <c r="B248">
+        <v>39276.251270000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249">
+        <v>39541.631159999997</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>213</v>
+      </c>
+      <c r="B250">
+        <v>40220.710789999997</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>216</v>
+      </c>
+      <c r="B251">
+        <v>40380.566980000003</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>175</v>
+      </c>
+      <c r="B252">
+        <v>42638.172550000003</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>103</v>
+      </c>
+      <c r="B253">
+        <v>43467.188880000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>187</v>
+      </c>
+      <c r="B254">
+        <v>45559.16489</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>18</v>
+      </c>
+      <c r="B255">
+        <v>46478.71716</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>79</v>
+      </c>
+      <c r="B256">
+        <v>48441.680590000004</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>224</v>
+      </c>
+      <c r="B257">
+        <v>48932.712749999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>20</v>
+      </c>
+      <c r="B258">
+        <v>49595.307330000003</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>222</v>
+      </c>
+      <c r="B259">
+        <v>51943.577749999997</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>223</v>
+      </c>
+      <c r="B260">
+        <v>56773.196920000002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>21</v>
+      </c>
+      <c r="B261">
+        <v>56859.519500000002</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>198</v>
+      </c>
+      <c r="B262">
+        <v>57088.769039999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>195</v>
+      </c>
+      <c r="B263">
+        <v>57525.90423</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>182</v>
+      </c>
+      <c r="B264">
+        <v>67106.949500000002</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>140</v>
+      </c>
+      <c r="B265">
+        <v>68787.909440000003</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>221</v>
+      </c>
+      <c r="B266">
+        <v>74017.891449999996</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>170</v>
+      </c>
+      <c r="B267">
+        <v>74295.360790000006</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>101</v>
+      </c>
+      <c r="B268">
+        <v>87304.048569999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>173</v>
+      </c>
+      <c r="B269">
+        <v>97613.031189999994</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>62</v>
+      </c>
+      <c r="B270">
+        <v>99916.417289999998</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>208</v>
+      </c>
+      <c r="B271">
+        <v>109146.2892</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>50</v>
+      </c>
+      <c r="B272">
+        <v>112126.9124</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>184</v>
+      </c>
+      <c r="B273">
+        <v>132414.07339999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>186</v>
+      </c>
+      <c r="B274">
+        <v>145555.74170000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>185</v>
+      </c>
+      <c r="B275">
+        <v>160556.43609999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>183</v>
+      </c>
+      <c r="B276">
+        <v>163311.31539999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>169</v>
+      </c>
+      <c r="B277">
+        <v>372799.10110000003</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>165</v>
+      </c>
+      <c r="B278">
+        <v>402211.9608</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>227</v>
+      </c>
+      <c r="B280">
+        <f>B282-B281</f>
+        <v>3271944.7507846099</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>233</v>
+      </c>
+      <c r="B281">
+        <f>SUM(B269:B278)</f>
+        <v>1795651.2785800002</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>225</v>
+      </c>
+      <c r="B282">
+        <f>SUM(B68:B278)</f>
+        <v>5067596.0293646101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/food_analysis.xlsx
+++ b/food_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmac9\Desktop\Coding Stuff\Food_Impact\food_impact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C27334-9797-4F0D-A08E-6E2E4E965420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A611A0-4CE1-4F6B-9233-DCFD5BB497E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-7695" windowWidth="16410" windowHeight="11295" activeTab="4" xr2:uid="{04DA4E34-F6AA-4555-AF10-7192D7788530}"/>
+    <workbookView xWindow="28680" yWindow="-8130" windowWidth="16440" windowHeight="28320" tabRatio="767" activeTab="3" xr2:uid="{04DA4E34-F6AA-4555-AF10-7192D7788530}"/>
   </bookViews>
   <sheets>
     <sheet name="Emissions" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Eutrophication" sheetId="4" r:id="rId3"/>
     <sheet name="Water Withdrawals" sheetId="5" r:id="rId4"/>
     <sheet name="Water Scarcity" sheetId="6" r:id="rId5"/>
+    <sheet name="Averages" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Emissions!$A$16:$A$17</definedName>
@@ -25,15 +26,13 @@
     <definedName name="_xlchart.v1.10" hidden="1">'Water Withdrawals'!$D$16:$D$17</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">'Water Scarcity'!$A$16:$A$17</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">'Water Scarcity'!$D$16:$D$17</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Water Scarcity'!$A$16:$A$17</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Water Scarcity'!$D$16:$D$17</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Land Use'!$A$16:$A$17</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Land Use'!$D$16:$D$17</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Eutrophication!$A$2:$A$12</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Eutrophication!$C$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Eutrophication!$C$2:$C$12</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Eutrophication!$A$16:$A$17</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Eutrophication!$D$16:$D$17</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Eutrophication!$A$16:$A$17</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Eutrophication!$D$16:$D$17</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Eutrophication!$A$2:$A$12</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Eutrophication!$C$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Eutrophication!$C$2:$C$12</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">'Water Withdrawals'!$A$16:$A$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="242">
   <si>
     <t>Count</t>
   </si>
@@ -759,6 +758,30 @@
   </si>
   <si>
     <t>Top 10</t>
+  </si>
+  <si>
+    <t>emissions</t>
+  </si>
+  <si>
+    <t>land use</t>
+  </si>
+  <si>
+    <t>eutro</t>
+  </si>
+  <si>
+    <t>water with</t>
+  </si>
+  <si>
+    <t>water scar</t>
+  </si>
+  <si>
+    <t>averages</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>RANK</t>
   </si>
 </sst>
 </file>
@@ -790,12 +813,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -820,11 +849,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4107,10 +4137,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4216,7 +4246,7 @@
         <cx:series layoutId="treemap" uniqueId="{F8BC2F43-A289-4E57-AEBB-877766565CBD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>SUM</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4256,10 +4286,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -12301,7 +12331,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2628900" y="5976937"/>
+              <a:off x="2724150" y="5976937"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -12673,7 +12703,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12941,7 +12971,7 @@
   <dimension ref="A1:I282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15043,7 +15073,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15406,8 +15436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E65EE3-7638-4B69-9FE0-AE0BD5885EA0}">
   <dimension ref="A1:W282"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17555,8 +17585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C926448-A912-4D61-AEFB-D83344D7E928}">
   <dimension ref="A1:R282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="B274" sqref="B274"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19627,4 +19657,389 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A148A039-AC43-4E6A-8AD3-22E0DE5A40AB}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>3.2</v>
+      </c>
+      <c r="H2">
+        <f>SUM(B2:F2)</f>
+        <v>16</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G12" si="0">AVERAGE(B3:F3)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H12" si="1">SUM(B3:F3)</f>
+        <v>23</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="J4" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="J5" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="J6" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="J9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J10" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J12" s="4">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>